--- a/1.xlsx
+++ b/1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haroo\Desktop\Course\Course 1 Final\01 Example 1 - Formulas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSComarch\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A947300E-0DEE-41B8-B252-6E14DCE85FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781EF328-BB02-4D0B-83F2-3BD4E6265EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6465" yWindow="375" windowWidth="21570" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clean Data" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="45">
   <si>
     <t>Salesperson</t>
   </si>
@@ -69,12 +91,6 @@
     <t>South</t>
   </si>
   <si>
-    <t>What are the total sales ?</t>
-  </si>
-  <si>
-    <t>Who is the Top Salesperson overall ?</t>
-  </si>
-  <si>
     <t>Alan Turing</t>
   </si>
   <si>
@@ -174,16 +190,10 @@
     <t>Use Case Scenario : 1</t>
   </si>
   <si>
-    <t>Queries to resolve</t>
-  </si>
-  <si>
     <t>Formula</t>
   </si>
   <si>
     <t>Formula creation with help of Chat GPT</t>
-  </si>
-  <si>
-    <t>Who is the Top Salesperson in each Region ?</t>
   </si>
 </sst>
 </file>
@@ -195,7 +205,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,13 +236,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF374151"/>
-      <name val="Book Antiqua"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Book Antiqua"/>
       <family val="1"/>
     </font>
@@ -373,7 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -382,10 +385,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -395,15 +394,12 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -411,8 +407,8 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Dziesiętny" xfId="1" builtinId="3"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -691,46 +687,116 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" style="1" customWidth="1"/>
-    <col min="8" max="15" width="8.88671875" style="1"/>
-    <col min="16" max="16" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="8.85546875" style="1"/>
+    <col min="15" max="15" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="1" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="array" ref="H2">MAX(IF(E:E=E2,G:G))</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="array" ref="I2">IF(G2=H2,D2,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="array" ref="J2">IF(G2=MAX(IF(E:E=E2,G:G)),D2,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" cm="1">
+        <f t="array" ref="L2">INDEX(D2:D100, MATCH(MAX(IF(E2:E100=I2, G2:G100)), IF(E2:E100=I2, G2:G100), 0))</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:16" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="1">
+        <f t="array" ref="H3">MAX(IF(E:E=E3,G:G))</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="array" ref="I3">IF(G3=H3,D3,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="array" ref="J3">IF(G3=MAX(IF(E:E=E3,G:G)),D3,"")</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="str">
+        <f t="array" aca="1" ref="O3" ca="1">IFERROR(TEKST.ZŁĄCZ(" , ", TRUE, _xlfn._xlws.FILTER(D2:D100, (E2:E100=O2)*(G2:G100=MAX(IF(E2:E100=O2, G2:G100))))), "Brak danych")</f>
+        <v>Brak danych</v>
+      </c>
+      <c r="P3" s="1" t="str" cm="1">
+        <f t="array" ref="P3">_xlfn._xlws.FILTER(D2:D100, (E2:E100=P2)*(G2:G100=MAX(IF(E2:E100=P2, G2:G100))))</f>
+        <v>Ada Lovelace</v>
+      </c>
+      <c r="Q3" s="1" t="str" cm="1">
+        <f t="array" ref="Q3">_xlfn._xlws.FILTER(D2:D100, (E2:E100=Q2)*(G2:G100=MAX(IF(E2:E100=Q2, G2:G100))))</f>
+        <v>Barbara Liskov</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="1">
+        <f t="array" ref="H4">MAX(IF(E:E=E4,G:G))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="array" ref="I4">IF(G4=H4,D4,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="array" ref="J4">IF(G4=MAX(IF(E:E=E4,G:G)),D4,"")</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" cm="1">
+        <f t="array" ref="O4">MAX(IF(E2:E100=O2, G2:G100))</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>0</v>
@@ -744,538 +810,1361 @@
       <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="6">
+      <c r="H5" s="1">
+        <f t="array" ref="H5">MAX(IF(E:E=E5,G:G))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f t="array" ref="I5">IF(G5=H5,D5,"")</f>
+        <v/>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f t="array" ref="J5">IF(G5=MAX(IF(E:E=E5,G:G)),D5,"")</f>
+        <v/>
+      </c>
+      <c r="O5" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="O5" ca="1">IFERROR(TEKST.ZŁĄCZ(" , ", TRUE, _xlfn._xlws.FILTER(D2:D100, (E2:E100=O2)*(G2:G100=MAX(IF(E2:E100=O2, G2:G100))))), "Brak danych")</f>
+        <v>Brak danych</v>
+      </c>
+      <c r="P5" s="1" t="str">
+        <f t="array" aca="1" ref="P5" ca="1">IFERROR(TEKST.ZŁĄCZ(" , ", TRUE, _xlfn._xlws.FILTER(D2:D100, (E2:E100=O2)*(G2:G100=MAX(IF(E2:E100=O2, G2:G100))))), "Brak danych")</f>
+        <v>Brak danych</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6">
+        <v>500</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="array" ref="H6">MAX(IF(E:E=E6,G:G))</f>
+        <v>750</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f t="array" ref="I6">IF(G6=H6,D6,"")</f>
+        <v/>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f t="array" ref="J6">IF(G6=MAX(IF(E:E=E6,G:G)),D6,"")</f>
+        <v/>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="6">
+        <v>300</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="array" ref="H7">MAX(IF(E:E=E7,G:G))</f>
+        <v>850</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="array" ref="I7">IF(G7=H7,D7,"")</f>
+        <v/>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="array" ref="J7">IF(G7=MAX(IF(E:E=E7,G:G)),D7,"")</f>
+        <v/>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="13">
+        <f>SUM(G2:G100)</f>
+        <v>15730</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="6">
+        <v>750</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="array" ref="H8">MAX(IF(E:E=E8,G:G))</f>
+        <v>750</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="array" ref="I8">IF(G8=H8,D8,"")</f>
+        <v>Ada Lovelace</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f t="array" ref="J8">IF(G8=MAX(IF(E:E=E8,G:G)),D8,"")</f>
+        <v>Ada Lovelace</v>
+      </c>
+      <c r="P8" s="11" t="str">
+        <f>INDEX(D2:D100, MATCH(MAX(G2:G100), G2:G100, 0))</f>
+        <v>Carol Shaw</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G9" s="6">
+        <v>550</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="array" ref="H9">MAX(IF(E:E=E9,G:G))</f>
+        <v>600</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f t="array" ref="I9">IF(G9=H9,D9,"")</f>
+        <v/>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f t="array" ref="J9">IF(G9=MAX(IF(E:E=E9,G:G)),D9,"")</f>
+        <v/>
+      </c>
+      <c r="P9" s="11" cm="1">
+        <f t="array" ref="P9">INDEX(D2:D100, MATCH(MAX(IF(E2:E100=I2, G2:G100)), IF(E2:E100=I2, G2:G100), 0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="6">
+        <v>450</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="array" ref="H10">MAX(IF(E:E=E10,G:G))</f>
+        <v>850</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f t="array" ref="I10">IF(G10=H10,D10,"")</f>
+        <v/>
+      </c>
+      <c r="J10" s="1" t="str" cm="1">
+        <f t="array" ref="J10">IF(G10=MAX(IF(E:E=E10,G:G)),D10,"")</f>
+        <v/>
+      </c>
+      <c r="P10" s="11" cm="1">
+        <f t="array" ref="P10">INDEX(D3:D101, MATCH(MAX(IF(E3:E101=I3, G3:G101)), IF(E3:E101=I3, G3:G101), 0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="4">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="6">
+        <v>400</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="array" ref="H11">MAX(IF(E:E=E11,G:G))</f>
+        <v>750</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f t="array" ref="I11">IF(G11=H11,D11,"")</f>
+        <v/>
+      </c>
+      <c r="J11" s="1" t="str" cm="1">
+        <f t="array" ref="J11">IF(G11=MAX(IF(E:E=E11,G:G)),D11,"")</f>
+        <v/>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="P11" s="11" cm="1">
+        <f t="array" ref="P11">INDEX(D4:D102, MATCH(MAX(IF(E4:E102=I4, G4:G102)), IF(E4:E102=I4, G4:G102), 0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="4">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="6">
+        <v>600</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="array" ref="H12">MAX(IF(E:E=E12,G:G))</f>
+        <v>850</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f t="array" ref="I12">IF(G12=H12,D12,"")</f>
+        <v/>
+      </c>
+      <c r="J12" s="1" t="str" cm="1">
+        <f t="array" ref="J12">IF(G12=MAX(IF(E:E=E12,G:G)),D12,"")</f>
+        <v/>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="P12" s="11" cm="1">
+        <f t="array" ref="P12">INDEX(D5:D103, MATCH(MAX(IF(E5:E103=I5, G5:G103)), IF(E5:E103=I5, G5:G103), 0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="4">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="6">
+        <v>650</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="array" ref="H13">MAX(IF(E:E=E13,G:G))</f>
+        <v>750</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f t="array" ref="I13">IF(G13=H13,D13,"")</f>
+        <v/>
+      </c>
+      <c r="J13" s="1" t="str" cm="1">
+        <f t="array" ref="J13">IF(G13=MAX(IF(E:E=E13,G:G)),D13,"")</f>
+        <v/>
+      </c>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="4">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="6">
+        <v>350</v>
+      </c>
+      <c r="H14" s="1" cm="1">
+        <f t="array" ref="H14">MAX(IF(E:E=E14,G:G))</f>
+        <v>600</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f t="array" ref="I14">IF(G14=H14,D14,"")</f>
+        <v/>
+      </c>
+      <c r="J14" s="1" t="str" cm="1">
+        <f t="array" ref="J14">IF(G14=MAX(IF(E:E=E14,G:G)),D14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="4">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="6">
+        <v>400</v>
+      </c>
+      <c r="H15" s="1" cm="1">
+        <f t="array" ref="H15">MAX(IF(E:E=E15,G:G))</f>
+        <v>850</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f t="array" ref="I15">IF(G15=H15,D15,"")</f>
+        <v/>
+      </c>
+      <c r="J15" s="1" t="str" cm="1">
+        <f t="array" ref="J15">IF(G15=MAX(IF(E:E=E15,G:G)),D15,"")</f>
+        <v/>
+      </c>
+      <c r="K15" s="1" t="str">
+        <f t="array" ref="K15">IFERROR(
+  INDEX($D$6:$D$100,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW($D$6:$D$100)-ROW($D$6)+1) /
+      (
+        (
+          SUMIFS(
+            $G$6:$G$100,
+            $D$6:$D$100,$D$6:$D$100,
+            $E$6:$E$100,
+            INDEX($E$6:$E$100,
+              _xlfn.AGGREGATE(
+                15,6,
+                (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                ROW(B1)
+              )
+            )
+          )
+          =
+          MAX(
+            SUMIFS(
+              $G$6:$G$100,
+              $D$6:$D$100,$D$6:$D$100,
+              $E$6:$E$100,
+              INDEX($E$6:$E$100,
+                _xlfn.AGGREGATE(
+                  15,6,
+                  (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                  (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                  ROW(B1)
+                )
+              )
+            )
+          )
+        )
+        *
+        (MATCH($D$6:$D$100,$D$6:$D$100,0)=ROW($D$6:$D$100)-ROW($D$6)+1)
+      ),
+      1
+    )
+  ),
+""
+)</f>
+        <v>Ada Lovelace</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="4">
+        <v>11</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="6">
+        <v>550</v>
+      </c>
+      <c r="H16" s="1" cm="1">
+        <f t="array" ref="H16">MAX(IF(E:E=E16,G:G))</f>
+        <v>750</v>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f t="array" ref="I16">IF(G16=H16,D16,"")</f>
+        <v/>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f t="array" ref="J16">IFERROR(
+  INDEX($D$6:$D$100,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW($D$6:$D$100)-ROW($D$6)+1) /
+      (
+        (
+          SUMIFS(
+            $G$6:$G$100,
+            $D$6:$D$100,$D$6:$D$100,
+            $E$6:$E$100,
+            INDEX($E$6:$E$100,
+              _xlfn.AGGREGATE(
+                15,6,
+                (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                ROW(A2)
+              )
+            )
+          )
+          =
+          MAX(
+            SUMIFS(
+              $G$6:$G$100,
+              $D$6:$D$100,$D$6:$D$100,
+              $E$6:$E$100,
+              INDEX($E$6:$E$100,
+                _xlfn.AGGREGATE(
+                  15,6,
+                  (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                  (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                  ROW(A2)
+                )
+              )
+            )
+          )
+        )
+        *
+        (MATCH($D$6:$D$100,$D$6:$D$100,0)=ROW($D$6:$D$100)-ROW($D$6)+1)
+      ),
+      1
+    )
+  ),
+""
+)</f>
+        <v>Carol Shaw</v>
+      </c>
+      <c r="K16" s="1" t="str">
+        <f t="array" ref="K16">IFERROR(
+  INDEX($D$6:$D$100,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW($D$6:$D$100)-ROW($D$6)+1) /
+      (
+        (
+          SUMIFS(
+            $G$6:$G$100,
+            $D$6:$D$100,$D$6:$D$100,
+            $E$6:$E$100,
+            INDEX($E$6:$E$100,
+              _xlfn.AGGREGATE(
+                15,6,
+                (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                ROW(B2)
+              )
+            )
+          )
+          =
+          MAX(
+            SUMIFS(
+              $G$6:$G$100,
+              $D$6:$D$100,$D$6:$D$100,
+              $E$6:$E$100,
+              INDEX($E$6:$E$100,
+                _xlfn.AGGREGATE(
+                  15,6,
+                  (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                  (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                  ROW(B2)
+                )
+              )
+            )
+          )
+        )
+        *
+        (MATCH($D$6:$D$100,$D$6:$D$100,0)=ROW($D$6:$D$100)-ROW($D$6)+1)
+      ),
+      1
+    )
+  ),
+""
+)</f>
+        <v>Carol Shaw</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="4">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="6">
+        <v>300</v>
+      </c>
+      <c r="H17" s="1" cm="1">
+        <f t="array" ref="H17">MAX(IF(E:E=E17,G:G))</f>
+        <v>850</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f t="array" ref="I17">IF(G17=H17,D17,"")</f>
+        <v/>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f t="array" ref="J17">IFERROR(
+  INDEX($D$6:$D$100,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW($D$6:$D$100)-ROW($D$6)+1) /
+      (
+        (
+          SUMIFS(
+            $G$6:$G$100,
+            $D$6:$D$100,$D$6:$D$100,
+            $E$6:$E$100,
+            INDEX($E$6:$E$100,
+              _xlfn.AGGREGATE(
+                15,6,
+                (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                ROW(A3)
+              )
+            )
+          )
+          =
+          MAX(
+            SUMIFS(
+              $G$6:$G$100,
+              $D$6:$D$100,$D$6:$D$100,
+              $E$6:$E$100,
+              INDEX($E$6:$E$100,
+                _xlfn.AGGREGATE(
+                  15,6,
+                  (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                  (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                  ROW(A3)
+                )
+              )
+            )
+          )
+        )
+        *
+        (MATCH($D$6:$D$100,$D$6:$D$100,0)=ROW($D$6:$D$100)-ROW($D$6)+1)
+      ),
+      1
+    )
+  ),
+""
+)</f>
+        <v>Barbara Liskov</v>
+      </c>
+      <c r="K17" s="1" t="str">
+        <f t="array" ref="K17">IFERROR(
+  INDEX($D$6:$D$100,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW($D$6:$D$100)-ROW($D$6)+1) /
+      (
+        (
+          SUMIFS(
+            $G$6:$G$100,
+            $D$6:$D$100,$D$6:$D$100,
+            $E$6:$E$100,
+            INDEX($E$6:$E$100,
+              _xlfn.AGGREGATE(
+                15,6,
+                (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                ROW(B3)
+              )
+            )
+          )
+          =
+          MAX(
+            SUMIFS(
+              $G$6:$G$100,
+              $D$6:$D$100,$D$6:$D$100,
+              $E$6:$E$100,
+              INDEX($E$6:$E$100,
+                _xlfn.AGGREGATE(
+                  15,6,
+                  (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                  (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                  ROW(B3)
+                )
+              )
+            )
+          )
+        )
+        *
+        (MATCH($D$6:$D$100,$D$6:$D$100,0)=ROW($D$6:$D$100)-ROW($D$6)+1)
+      ),
+      1
+    )
+  ),
+""
+)</f>
+        <v>Barbara Liskov</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="4">
+        <v>13</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="6">
         <v>500</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="6">
-        <v>2</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="H18" s="1" cm="1">
+        <f t="array" ref="H18">MAX(IF(E:E=E18,G:G))</f>
+        <v>750</v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f t="array" ref="I18">IF(G18=H18,D18,"")</f>
+        <v/>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f t="array" ref="J18">IFERROR(
+  INDEX($D$6:$D$100,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW($D$6:$D$100)-ROW($D$6)+1) /
+      (
+        (
+          SUMIFS(
+            $G$6:$G$100,
+            $D$6:$D$100,$D$6:$D$100,
+            $E$6:$E$100,
+            INDEX($E$6:$E$100,
+              _xlfn.AGGREGATE(
+                15,6,
+                (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                ROW(A4)
+              )
+            )
+          )
+          =
+          MAX(
+            SUMIFS(
+              $G$6:$G$100,
+              $D$6:$D$100,$D$6:$D$100,
+              $E$6:$E$100,
+              INDEX($E$6:$E$100,
+                _xlfn.AGGREGATE(
+                  15,6,
+                  (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                  (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                  ROW(A4)
+                )
+              )
+            )
+          )
+        )
+        *
+        (MATCH($D$6:$D$100,$D$6:$D$100,0)=ROW($D$6:$D$100)-ROW($D$6)+1)
+      ),
+      1
+    )
+  ),
+""
+)</f>
+        <v>Alan Turing</v>
+      </c>
+      <c r="K18" s="1" t="str">
+        <f t="array" ref="K18">IFERROR(
+  INDEX($D$6:$D$100,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW($D$6:$D$100)-ROW($D$6)+1) /
+      (
+        (
+          SUMIFS(
+            $G$6:$G$100,
+            $D$6:$D$100,$D$6:$D$100,
+            $E$6:$E$100,
+            INDEX($E$6:$E$100,
+              _xlfn.AGGREGATE(
+                15,6,
+                (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                ROW(B4)
+              )
+            )
+          )
+          =
+          MAX(
+            SUMIFS(
+              $G$6:$G$100,
+              $D$6:$D$100,$D$6:$D$100,
+              $E$6:$E$100,
+              INDEX($E$6:$E$100,
+                _xlfn.AGGREGATE(
+                  15,6,
+                  (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                  (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                  ROW(B4)
+                )
+              )
+            )
+          )
+        )
+        *
+        (MATCH($D$6:$D$100,$D$6:$D$100,0)=ROW($D$6:$D$100)-ROW($D$6)+1)
+      ),
+      1
+    )
+  ),
+""
+)</f>
+        <v>Alan Turing</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="4">
+        <v>14</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="6">
+        <v>500</v>
+      </c>
+      <c r="H19" s="1" cm="1">
+        <f t="array" ref="H19">MAX(IF(E:E=E19,G:G))</f>
+        <v>600</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f t="array" ref="I19">IF(G19=H19,D19,"")</f>
+        <v/>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f t="array" ref="J19">IFERROR(
+  INDEX($D$6:$D$100,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW($D$6:$D$100)-ROW($D$6)+1) /
+      (
+        (
+          SUMIFS(
+            $G$6:$G$100,
+            $D$6:$D$100,$D$6:$D$100,
+            $E$6:$E$100,
+            INDEX($E$6:$E$100,
+              _xlfn.AGGREGATE(
+                15,6,
+                (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                ROW(A5)
+              )
+            )
+          )
+          =
+          MAX(
+            SUMIFS(
+              $G$6:$G$100,
+              $D$6:$D$100,$D$6:$D$100,
+              $E$6:$E$100,
+              INDEX($E$6:$E$100,
+                _xlfn.AGGREGATE(
+                  15,6,
+                  (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                  (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                  ROW(A5)
+                )
+              )
+            )
+          )
+        )
+        *
+        (MATCH($D$6:$D$100,$D$6:$D$100,0)=ROW($D$6:$D$100)-ROW($D$6)+1)
+      ),
+      1
+    )
+  ),
+""
+)</f>
+        <v>Alan Turing</v>
+      </c>
+      <c r="K19" s="1" t="str">
+        <f t="array" ref="K19">IFERROR(
+  INDEX($D$6:$D$100,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW($D$6:$D$100)-ROW($D$6)+1) /
+      (
+        (
+          SUMIFS(
+            $G$6:$G$100,
+            $D$6:$D$100,$D$6:$D$100,
+            $E$6:$E$100,
+            INDEX($E$6:$E$100,
+              _xlfn.AGGREGATE(
+                15,6,
+                (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                ROW(B5)
+              )
+            )
+          )
+          =
+          MAX(
+            SUMIFS(
+              $G$6:$G$100,
+              $D$6:$D$100,$D$6:$D$100,
+              $E$6:$E$100,
+              INDEX($E$6:$E$100,
+                _xlfn.AGGREGATE(
+                  15,6,
+                  (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                  (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                  ROW(B5)
+                )
+              )
+            )
+          )
+        )
+        *
+        (MATCH($D$6:$D$100,$D$6:$D$100,0)=ROW($D$6:$D$100)-ROW($D$6)+1)
+      ),
+      1
+    )
+  ),
+""
+)</f>
+        <v>Alan Turing</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="4">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="6">
+        <v>650</v>
+      </c>
+      <c r="H20" s="1" cm="1">
+        <f t="array" ref="H20">MAX(IF(E:E=E20,G:G))</f>
+        <v>850</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f t="array" ref="I20">IF(G20=H20,D20,"")</f>
+        <v/>
+      </c>
+      <c r="J20" s="1" t="str">
+        <f t="array" ref="J20">IFERROR(
+  INDEX($D$6:$D$100,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW($D$6:$D$100)-ROW($D$6)+1) /
+      (
+        (
+          SUMIFS(
+            $G$6:$G$100,
+            $D$6:$D$100,$D$6:$D$100,
+            $E$6:$E$100,
+            INDEX($E$6:$E$100,
+              _xlfn.AGGREGATE(
+                15,6,
+                (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                ROW(A6)
+              )
+            )
+          )
+          =
+          MAX(
+            SUMIFS(
+              $G$6:$G$100,
+              $D$6:$D$100,$D$6:$D$100,
+              $E$6:$E$100,
+              INDEX($E$6:$E$100,
+                _xlfn.AGGREGATE(
+                  15,6,
+                  (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                  (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                  ROW(A6)
+                )
+              )
+            )
+          )
+        )
+        *
+        (MATCH($D$6:$D$100,$D$6:$D$100,0)=ROW($D$6:$D$100)-ROW($D$6)+1)
+      ),
+      1
+    )
+  ),
+""
+)</f>
+        <v>Alan Turing</v>
+      </c>
+      <c r="K20" s="1" t="str">
+        <f t="array" ref="K20">IFERROR(
+  INDEX($D$6:$D$100,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW($D$6:$D$100)-ROW($D$6)+1) /
+      (
+        (
+          SUMIFS(
+            $G$6:$G$100,
+            $D$6:$D$100,$D$6:$D$100,
+            $E$6:$E$100,
+            INDEX($E$6:$E$100,
+              _xlfn.AGGREGATE(
+                15,6,
+                (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                ROW(B6)
+              )
+            )
+          )
+          =
+          MAX(
+            SUMIFS(
+              $G$6:$G$100,
+              $D$6:$D$100,$D$6:$D$100,
+              $E$6:$E$100,
+              INDEX($E$6:$E$100,
+                _xlfn.AGGREGATE(
+                  15,6,
+                  (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                  (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                  ROW(B6)
+                )
+              )
+            )
+          )
+        )
+        *
+        (MATCH($D$6:$D$100,$D$6:$D$100,0)=ROW($D$6:$D$100)-ROW($D$6)+1)
+      ),
+      1
+    )
+  ),
+""
+)</f>
+        <v>Alan Turing</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="4">
+        <v>16</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="6">
+        <v>600</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f t="array" ref="I21">IF(G21=H21,D21,"")</f>
+        <v/>
+      </c>
+      <c r="J21" s="1" t="str">
+        <f t="array" ref="J21">IFERROR(
+  INDEX($D$6:$D$100,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW($D$6:$D$100)-ROW($D$6)+1) /
+      (
+        (
+          SUMIFS(
+            $G$6:$G$100,
+            $D$6:$D$100,$D$6:$D$100,
+            $E$6:$E$100,
+            INDEX($E$6:$E$100,
+              _xlfn.AGGREGATE(
+                15,6,
+                (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                ROW(A7)
+              )
+            )
+          )
+          =
+          MAX(
+            SUMIFS(
+              $G$6:$G$100,
+              $D$6:$D$100,$D$6:$D$100,
+              $E$6:$E$100,
+              INDEX($E$6:$E$100,
+                _xlfn.AGGREGATE(
+                  15,6,
+                  (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                  (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                  ROW(A7)
+                )
+              )
+            )
+          )
+        )
+        *
+        (MATCH($D$6:$D$100,$D$6:$D$100,0)=ROW($D$6:$D$100)-ROW($D$6)+1)
+      ),
+      1
+    )
+  ),
+""
+)</f>
+        <v>Alan Turing</v>
+      </c>
+      <c r="K21" s="1" t="str">
+        <f t="array" ref="K21">IFERROR(
+  INDEX($D$6:$D$100,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW($D$6:$D$100)-ROW($D$6)+1) /
+      (
+        (
+          SUMIFS(
+            $G$6:$G$100,
+            $D$6:$D$100,$D$6:$D$100,
+            $E$6:$E$100,
+            INDEX($E$6:$E$100,
+              _xlfn.AGGREGATE(
+                15,6,
+                (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                ROW(B7)
+              )
+            )
+          )
+          =
+          MAX(
+            SUMIFS(
+              $G$6:$G$100,
+              $D$6:$D$100,$D$6:$D$100,
+              $E$6:$E$100,
+              INDEX($E$6:$E$100,
+                _xlfn.AGGREGATE(
+                  15,6,
+                  (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                  (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                  ROW(B7)
+                )
+              )
+            )
+          )
+        )
+        *
+        (MATCH($D$6:$D$100,$D$6:$D$100,0)=ROW($D$6:$D$100)-ROW($D$6)+1)
+      ),
+      1
+    )
+  ),
+""
+)</f>
+        <v>Alan Turing</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="4">
+        <v>17</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="8">
-        <v>300</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="16"/>
-    </row>
-    <row r="8" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="6">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="G22" s="6">
+        <v>750</v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f t="array" ref="I22">IF(G22=H22,D22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="4">
+        <v>18</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="6">
+        <v>600</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f t="array" ref="I23">IF(G23=H23,D23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="4">
+        <v>19</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="8">
-        <v>750</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="14"/>
-    </row>
-    <row r="9" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="6">
+      <c r="G24" s="6">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="4">
+        <v>20</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="6">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="4">
+        <v>21</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="6">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="4">
+        <v>22</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="F27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="6">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="4">
+        <v>23</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="6">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="4">
+        <v>24</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="6">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="4">
+        <v>25</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="8">
-        <v>550</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="P9" s="14"/>
-    </row>
-    <row r="10" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="6">
+      <c r="G30" s="6">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="4">
+        <v>26</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="6">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="4">
+        <v>27</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="6">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="4">
+        <v>28</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="6">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="4">
+        <v>29</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="G34" s="6">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="4">
+        <v>30</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="8">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="6">
-        <v>6</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="8">
-        <v>400</v>
-      </c>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="6">
-        <v>7</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="F35" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="8">
-        <v>600</v>
-      </c>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="6">
-        <v>8</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="8">
-        <v>650</v>
-      </c>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="6">
-        <v>9</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="8">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="6">
-        <v>10</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="8">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="6">
-        <v>11</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="8">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="6">
-        <v>12</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="8">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="6">
-        <v>13</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="8">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="6">
-        <v>14</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="8">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="6">
-        <v>15</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="8">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="6">
-        <v>16</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="8">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="6">
-        <v>17</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="8">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="6">
-        <v>18</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="8">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="6">
-        <v>19</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="8">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="6">
-        <v>20</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="8">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="6">
-        <v>21</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="8">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="6">
-        <v>22</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="8">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="6">
-        <v>23</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="8">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="6">
-        <v>24</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="8">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="6">
-        <v>25</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="8">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="6">
-        <v>26</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="8">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="6">
-        <v>27</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="8">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="6">
-        <v>28</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="8">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="6">
-        <v>29</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="8">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="6">
-        <v>30</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="8">
+      <c r="G35" s="6">
         <v>670</v>
       </c>
     </row>
